--- a/data/raw/response_traits/data_respose_traits_FINAL.xlsx
+++ b/data/raw/response_traits/data_respose_traits_FINAL.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="18855" windowHeight="10740"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="18855" windowHeight="10740" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="comments" sheetId="4" r:id="rId3"/>
+    <sheet name="falta" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -2515,12 +2516,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I296"/>
+  <dimension ref="A1:I259"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="C221" sqref="C221"/>
+      <selection pane="bottomLeft" activeCell="A257" sqref="A257:G296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7735,928 +7736,14 @@
     <row r="255" spans="1:9">
       <c r="H255" s="80"/>
     </row>
-    <row r="257" spans="1:8">
-      <c r="A257" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="B257" s="62" t="s">
-        <v>331</v>
-      </c>
-      <c r="C257" s="63">
-        <v>2</v>
-      </c>
-      <c r="D257" s="63" t="s">
-        <v>254</v>
-      </c>
-      <c r="E257" s="63" t="s">
-        <v>254</v>
-      </c>
-      <c r="F257" s="63" t="s">
-        <v>254</v>
-      </c>
-      <c r="G257" s="63" t="s">
-        <v>254</v>
-      </c>
+    <row r="257" spans="8:8">
       <c r="H257" s="80"/>
     </row>
-    <row r="258" spans="1:8">
-      <c r="A258" s="66" t="s">
-        <v>372</v>
-      </c>
-      <c r="B258" s="62" t="s">
-        <v>301</v>
-      </c>
-      <c r="C258" s="63">
-        <v>4</v>
-      </c>
-      <c r="D258" s="63" t="s">
-        <v>254</v>
-      </c>
-      <c r="E258" s="63" t="s">
-        <v>254</v>
-      </c>
-      <c r="F258" s="63" t="s">
-        <v>254</v>
-      </c>
-      <c r="G258" s="63" t="s">
-        <v>254</v>
-      </c>
+    <row r="258" spans="8:8">
       <c r="H258" s="80"/>
     </row>
-    <row r="259" spans="1:8">
-      <c r="A259" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="B259" s="62" t="s">
-        <v>265</v>
-      </c>
-      <c r="C259" s="64">
-        <v>2</v>
-      </c>
-      <c r="D259" s="63" t="s">
-        <v>254</v>
-      </c>
-      <c r="E259" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="F259" s="65" t="s">
-        <v>355</v>
-      </c>
-      <c r="G259" s="63" t="s">
-        <v>254</v>
-      </c>
+    <row r="259" spans="8:8">
       <c r="H259" s="80"/>
-    </row>
-    <row r="260" spans="1:8">
-      <c r="A260" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="B260" s="62" t="s">
-        <v>280</v>
-      </c>
-      <c r="C260" s="63" t="s">
-        <v>254</v>
-      </c>
-      <c r="D260" s="63" t="s">
-        <v>254</v>
-      </c>
-      <c r="E260" s="63" t="s">
-        <v>254</v>
-      </c>
-      <c r="F260" s="63" t="s">
-        <v>254</v>
-      </c>
-      <c r="G260" s="63" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
-      <c r="A261" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B261" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C261" s="36">
-        <v>3</v>
-      </c>
-      <c r="D261" s="36" t="s">
-        <v>376</v>
-      </c>
-      <c r="E261" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F261" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="G261" s="36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
-      <c r="A262" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="B262" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="C262" s="36">
-        <v>4</v>
-      </c>
-      <c r="D262" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="E262" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="F262" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="G262" s="36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
-      <c r="A263" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B263" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C263" s="36">
-        <v>2</v>
-      </c>
-      <c r="D263" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="E263" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="F263" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="G263" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
-      <c r="A264" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B264" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C264" s="36">
-        <v>2</v>
-      </c>
-      <c r="D264" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="E264" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="F264" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="G264" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
-      <c r="A265" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B265" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="C265" s="36">
-        <v>2</v>
-      </c>
-      <c r="D265" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="E265" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="F265" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="G265" s="36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
-      <c r="A266" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B266" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="C266" s="36">
-        <v>3</v>
-      </c>
-      <c r="D266" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="E266" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="F266" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="G266" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
-      <c r="A267" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B267" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C267" s="36">
-        <v>3</v>
-      </c>
-      <c r="D267" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="E267" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F267" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="G267" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
-      <c r="A268" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B268" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C268" s="36">
-        <v>4</v>
-      </c>
-      <c r="D268" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="E268" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F268" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="G268" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
-      <c r="A269" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B269" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="C269" s="36">
-        <v>2</v>
-      </c>
-      <c r="D269" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="E269" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F269" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="G269" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
-      <c r="A270" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B270" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="C270" s="36">
-        <v>4</v>
-      </c>
-      <c r="D270" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="E270" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F270" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="G270" s="36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
-      <c r="A271" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B271" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="C271" s="36">
-        <v>4</v>
-      </c>
-      <c r="D271" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="E271" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F271" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="G271" s="36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
-      <c r="A272" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B272" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="C272" s="36">
-        <v>2</v>
-      </c>
-      <c r="D272" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="E272" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F272" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="G272" s="36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7">
-      <c r="A273" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B273" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="C273" s="36">
-        <v>2</v>
-      </c>
-      <c r="D273" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="E273" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F273" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="G273" s="36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7">
-      <c r="A274" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B274" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="C274" s="36">
-        <v>4</v>
-      </c>
-      <c r="D274" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="E274" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F274" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="G274" s="36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7">
-      <c r="A275" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B275" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="C275" s="36">
-        <v>2</v>
-      </c>
-      <c r="D275" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="E275" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F275" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="G275" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7">
-      <c r="A276" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B276" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="C276" s="36">
-        <v>3</v>
-      </c>
-      <c r="D276" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="E276" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F276" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="G276" s="36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7">
-      <c r="A277" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B277" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="C277" s="36">
-        <v>2</v>
-      </c>
-      <c r="D277" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="E277" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F277" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="G277" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7">
-      <c r="A278" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B278" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="C278" s="36">
-        <v>3</v>
-      </c>
-      <c r="D278" s="45" t="s">
-        <v>375</v>
-      </c>
-      <c r="E278" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="F278" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="G278" s="36" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7">
-      <c r="A279" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B279" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C279" s="36">
-        <v>2</v>
-      </c>
-      <c r="D279" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="E279" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="F279" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G279" s="36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7">
-      <c r="A280" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B280" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C280" s="36">
-        <v>4</v>
-      </c>
-      <c r="D280" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="E280" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="F280" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="G280" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7">
-      <c r="A281" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B281" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="C281" s="53">
-        <v>3</v>
-      </c>
-      <c r="D281" s="53" t="s">
-        <v>375</v>
-      </c>
-      <c r="E281" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="F281" s="53" t="s">
-        <v>355</v>
-      </c>
-      <c r="G281" s="53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7">
-      <c r="A282" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B282" s="35" t="s">
-        <v>292</v>
-      </c>
-      <c r="C282" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="D282" s="36" t="s">
-        <v>377</v>
-      </c>
-      <c r="E282" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F282" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="G282" s="36" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7">
-      <c r="A283" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B283" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C283" s="36">
-        <v>2</v>
-      </c>
-      <c r="D283" s="36" t="s">
-        <v>378</v>
-      </c>
-      <c r="E283" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F283" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="G283" s="36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7">
-      <c r="A284" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B284" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C284" s="36">
-        <v>2</v>
-      </c>
-      <c r="D284" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="E284" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F284" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="G284" s="36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7">
-      <c r="A285" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B285" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C285" s="36">
-        <v>4</v>
-      </c>
-      <c r="D285" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E285" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F285" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="G285" s="36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7">
-      <c r="A286" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B286" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="C286" s="60">
-        <v>4</v>
-      </c>
-      <c r="D286" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="E286" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F286" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="G286" s="36" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7">
-      <c r="A287" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B287" s="51" t="s">
-        <v>253</v>
-      </c>
-      <c r="C287" s="36">
-        <v>2</v>
-      </c>
-      <c r="D287" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="E287" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F287" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="G287" s="36" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7">
-      <c r="A288" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B288" s="51" t="s">
-        <v>223</v>
-      </c>
-      <c r="C288" s="36">
-        <v>2</v>
-      </c>
-      <c r="D288" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="E288" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F288" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="G288" s="36" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7">
-      <c r="A289" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="B289" s="51" t="s">
-        <v>226</v>
-      </c>
-      <c r="C289" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="D289" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="E289" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F289" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="G289" s="36" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7">
-      <c r="A290" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="B290" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="C290" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="D290" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="E290" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F290" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="G290" s="36" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7">
-      <c r="A291" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B291" s="51" t="s">
-        <v>228</v>
-      </c>
-      <c r="C291" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="D291" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="E291" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F291" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="G291" s="36" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7">
-      <c r="A292" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B292" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="C292" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="D292" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="E292" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F292" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="G292" s="36" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7">
-      <c r="A293" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B293" s="51" t="s">
-        <v>234</v>
-      </c>
-      <c r="C293" s="36">
-        <v>2</v>
-      </c>
-      <c r="D293" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="E293" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F293" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="G293" s="36" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7">
-      <c r="A294" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B294" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="C294" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="D294" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="E294" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F294" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="G294" s="36" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7">
-      <c r="A295" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B295" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="C295" s="36">
-        <v>2</v>
-      </c>
-      <c r="D295" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="E295" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F295" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="G295" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7">
-      <c r="A296" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B296" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C296" s="36">
-        <v>2</v>
-      </c>
-      <c r="D296" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="E296" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F296" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="G296" s="36">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
   <sortState ref="A2:H218">
@@ -9649,4 +8736,939 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1" s="63">
+        <v>2</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="66" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="63">
+        <v>4</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="G2" s="63" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="64">
+        <v>2</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="G3" s="63" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="36">
+        <v>3</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="G5" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="36">
+        <v>4</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="G6" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="36">
+        <v>2</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="36">
+        <v>2</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="36">
+        <v>2</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="36">
+        <v>3</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="36">
+        <v>3</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="36">
+        <v>4</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="36">
+        <v>2</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="36">
+        <v>4</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="36">
+        <v>4</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="36">
+        <v>2</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="36">
+        <v>2</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="36">
+        <v>4</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="36">
+        <v>2</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="36">
+        <v>3</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="36">
+        <v>2</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" s="36">
+        <v>3</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>375</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="36">
+        <v>2</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="36">
+        <v>4</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="53">
+        <v>3</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>375</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="G25" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="36">
+        <v>2</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="G27" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="36">
+        <v>2</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="G28" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="36">
+        <v>4</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="G29" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="C30" s="60">
+        <v>4</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="G30" s="36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="C31" s="36">
+        <v>2</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="G31" s="36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="C32" s="36">
+        <v>2</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="G32" s="36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="G33" s="36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="E35" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="G35" s="36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="G36" s="36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="C37" s="36">
+        <v>2</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="E37" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="G37" s="36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="E38" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="G38" s="36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" s="36">
+        <v>2</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E39" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="G39" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="36">
+        <v>2</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="G40" s="36">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/raw/response_traits/data_respose_traits_FINAL.xlsx
+++ b/data/raw/response_traits/data_respose_traits_FINAL.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="18855" windowHeight="10740" activeTab="3"/>
@@ -12,12 +12,12 @@
     <sheet name="comments" sheetId="4" r:id="rId3"/>
     <sheet name="falta" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="666">
   <si>
     <t>familia</t>
   </si>
@@ -2006,6 +2006,18 @@
   </si>
   <si>
     <t>resprout_capacity</t>
+  </si>
+  <si>
+    <t>AN-gravedad</t>
+  </si>
+  <si>
+    <t>aves</t>
+  </si>
+  <si>
+    <t>viento</t>
+  </si>
+  <si>
+    <t>macho/hembra</t>
   </si>
 </sst>
 </file>
@@ -3329,10 +3341,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J259"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A219" sqref="A219:I258"/>
+      <selection pane="bottomLeft" activeCell="C259" sqref="C259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11923,7 +11935,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -12207,7 +12219,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="61" t="s">
-        <v>254</v>
+        <v>662</v>
       </c>
       <c r="F10" s="63" t="s">
         <v>37</v>
@@ -12348,17 +12360,14 @@
       <c r="C15" s="60" t="s">
         <v>605</v>
       </c>
-      <c r="D15" s="61" t="s">
-        <v>254</v>
-      </c>
       <c r="E15" s="61" t="s">
-        <v>254</v>
+        <v>663</v>
       </c>
       <c r="F15" s="61" t="s">
-        <v>254</v>
+        <v>37</v>
       </c>
       <c r="G15" s="61" t="s">
-        <v>254</v>
+        <v>355</v>
       </c>
       <c r="H15" s="61" t="s">
         <v>254</v>
@@ -12845,13 +12854,13 @@
         <v>4</v>
       </c>
       <c r="E32" s="61" t="s">
-        <v>254</v>
+        <v>663</v>
       </c>
       <c r="F32" s="61" t="s">
-        <v>254</v>
+        <v>665</v>
       </c>
       <c r="G32" s="61" t="s">
-        <v>254</v>
+        <v>664</v>
       </c>
       <c r="H32" s="61" t="s">
         <v>254</v>
@@ -13077,13 +13086,13 @@
         <v>2</v>
       </c>
       <c r="E40" s="61" t="s">
-        <v>254</v>
+        <v>663</v>
       </c>
       <c r="F40" s="61" t="s">
-        <v>254</v>
+        <v>665</v>
       </c>
       <c r="G40" s="61" t="s">
-        <v>254</v>
+        <v>355</v>
       </c>
       <c r="H40" s="61" t="s">
         <v>254</v>
